--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3921.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3921.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.341539579249984</v>
+        <v>1.260903716087341</v>
       </c>
       <c r="B1">
-        <v>1.834651367491752</v>
+        <v>1.512049674987793</v>
       </c>
       <c r="C1">
-        <v>3.110535456574408</v>
+        <v>2.017351865768433</v>
       </c>
       <c r="D1">
-        <v>7.637102169570352</v>
+        <v>2.106147527694702</v>
       </c>
       <c r="E1">
-        <v>1.600519165506092</v>
+        <v>1.166621208190918</v>
       </c>
     </row>
   </sheetData>
